--- a/collectionresults1/InformationPeople.xlsx
+++ b/collectionresults1/InformationPeople.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Hà Tĩnh</t>
   </si>
   <si>
-    <t>Nguyễn Thiị Huỳnh My</t>
-  </si>
-  <si>
     <t>Đặng Thanh Nam</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Lê Tấn Phát</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huỳnh My</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +711,9 @@
       <c r="C13">
         <v>1996</v>
       </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
@@ -725,6 +728,9 @@
       <c r="C14">
         <v>1996</v>
       </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -734,10 +740,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>1996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -748,13 +757,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>1996</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16">
-        <v>1996</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +774,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1996</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -776,13 +791,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>1996</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1996</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,13 +808,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1996</v>
       </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,13 +825,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>1996</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
-      </c>
-      <c r="C20">
-        <v>1996</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,13 +842,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1996</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
-      </c>
-      <c r="C21">
-        <v>1996</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,13 +859,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1996</v>
       </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/collectionresults1/InformationPeople.xlsx
+++ b/collectionresults1/InformationPeople.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Đặng Thanh Nam</t>
   </si>
   <si>
-    <t>Cửu Long</t>
-  </si>
-  <si>
     <t>Dương Anh Thư</t>
   </si>
   <si>
@@ -150,6 +147,15 @@
   </si>
   <si>
     <t>Nguyễn Thị Huỳnh My</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lạ</t>
+  </si>
+  <si>
+    <t>Vũng Tàu</t>
+  </si>
+  <si>
+    <t>An Giang</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1996</v>
@@ -766,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1996</v>
@@ -791,16 +797,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>1996</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18">
-        <v>1996</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>1996</v>
@@ -817,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,16 +831,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1996</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20">
-        <v>1996</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>1996</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21">
-        <v>1996</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>1996</v>
@@ -868,7 +874,24 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>1996</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/collectionresults1/InformationPeople.xlsx
+++ b/collectionresults1/InformationPeople.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>An Giang</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +555,9 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
